--- a/grupos/2APM - Estadisticos 2020.xlsx
+++ b/grupos/2APM - Estadisticos 2020.xlsx
@@ -119,7 +119,7 @@
     <t>URBANO GARCIA EVELYN</t>
   </si>
   <si>
-    <t>VAZQUEZ HERNANDEZ VICTOR MANUEL</t>
+    <t>VASQUEZ HERNANDEZ VICTOR MANUEL</t>
   </si>
   <si>
     <t>VERA PONCE MARITZA</t>
@@ -317,7 +317,7 @@
     <t>URBANO</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
+    <t>VASQUEZ</t>
   </si>
   <si>
     <t>XILCAHUA</t>
@@ -2834,6 +2834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3630,7 +3631,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4088,6 +4090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2APM - Estadisticos 2020.xlsx
+++ b/grupos/2APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -161,12 +161,12 @@
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>De Jesús Orduña Sofía del Pilar</t>
   </si>
   <si>
@@ -188,6 +188,9 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BACILIO</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>CUEVAS</t>
   </si>
   <si>
@@ -209,57 +215,108 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
     <t>NAMIGTLE</t>
   </si>
   <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
     <t>VERA</t>
   </si>
   <si>
+    <t>XILCAHUA</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
     <t>VILLALBA</t>
   </si>
   <si>
-    <t>CORTES</t>
-  </si>
-  <si>
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
     <t>CUATRA</t>
   </si>
   <si>
+    <t>PIMENTEL</t>
+  </si>
+  <si>
     <t>PALMA</t>
   </si>
   <si>
     <t>CASTRO</t>
   </si>
   <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>IXTLA</t>
+  </si>
+  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
     <t>MOLOHUA</t>
   </si>
   <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>HERRERA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>PONCE</t>
   </si>
   <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>YAIR</t>
+  </si>
+  <si>
     <t>ADAN</t>
   </si>
   <si>
@@ -272,109 +329,52 @@
     <t>CESAR</t>
   </si>
   <si>
+    <t>ISYSS MONSERRATH</t>
+  </si>
+  <si>
     <t>VICTOR MANUEL</t>
   </si>
   <si>
     <t>EDUARDO</t>
   </si>
   <si>
+    <t>MARIAM GUADALUPE</t>
+  </si>
+  <si>
+    <t>ELIEL</t>
+  </si>
+  <si>
     <t>EDGAR DANIEL</t>
   </si>
   <si>
     <t>JESUS</t>
   </si>
   <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
+    <t>ESTEFANI</t>
+  </si>
+  <si>
     <t>EMILIO</t>
   </si>
   <si>
+    <t>INGRID</t>
+  </si>
+  <si>
     <t>JAHEL</t>
   </si>
   <si>
     <t>MARITZA</t>
   </si>
   <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
     <t>ANGELA MONTSERRAT</t>
-  </si>
-  <si>
-    <t>BACILIO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
-    <t>ATILANO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>PIMENTEL</t>
-  </si>
-  <si>
-    <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>IXTLA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>ISYSS MONSERRATH</t>
-  </si>
-  <si>
-    <t>MARIAM GUADALUPE</t>
-  </si>
-  <si>
-    <t>ELIEL</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ESTEFANI</t>
-  </si>
-  <si>
-    <t>INGRID</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1074,7 +1074,7 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1393,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1414,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <v>-1</v>
@@ -1597,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1618,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>-1</v>
@@ -1822,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>-1</v>
@@ -1890,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -1958,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -2005,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2094,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2162,7 +2162,7 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2298,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -2640,13 +2640,13 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2655,15 +2655,15 @@
         <v>6.9</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -2828,7 +2828,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2860,19 +2860,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920337</v>
+        <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
@@ -2880,79 +2880,79 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920337</v>
+        <v>20330051920336</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920337</v>
+        <v>20330051920336</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920337</v>
+        <v>20330051920336</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920338</v>
+        <v>20330051920336</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -2960,199 +2960,199 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920338</v>
+        <v>20330051920336</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920338</v>
+        <v>20330051920336</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920338</v>
+        <v>20330051920337</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920338</v>
+        <v>20330051920337</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920338</v>
+        <v>20330051920337</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920263</v>
+        <v>20330051920337</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920263</v>
+        <v>20330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920263</v>
+        <v>20330051920337</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920263</v>
+        <v>20330051920337</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920340</v>
+        <v>20330051920338</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -3160,139 +3160,139 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920340</v>
+        <v>20330051920338</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920340</v>
+        <v>20330051920338</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920342</v>
+        <v>20330051920338</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920342</v>
+        <v>20330051920338</v>
       </c>
       <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920342</v>
+        <v>20330051920338</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920343</v>
+        <v>20330051920338</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920381</v>
+        <v>20330051920263</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
         <v>47</v>
@@ -3300,116 +3300,116 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920346</v>
+        <v>20330051920263</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920346</v>
+        <v>20330051920263</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920346</v>
+        <v>20330051920263</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920346</v>
+        <v>20330051920263</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920346</v>
+        <v>20330051920263</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920349</v>
+        <v>20330051920339</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -3420,139 +3420,139 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920352</v>
+        <v>20330051920339</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920352</v>
+        <v>20330051920339</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920352</v>
+        <v>20330051920339</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920354</v>
+        <v>20330051920339</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920354</v>
+        <v>20330051920339</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920354</v>
+        <v>20330051920339</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920356</v>
+        <v>20330051920340</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
@@ -3560,62 +3560,2502 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920356</v>
+        <v>20330051920340</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920383</v>
+        <v>20330051920340</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
+        <v>20330051920340</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>20330051920340</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20330051920340</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20330051920340</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20330051920341</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20330051920341</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20330051920341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>20330051920341</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20330051920341</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20330051920341</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20330051920342</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>20330051920342</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>20330051920342</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20330051920342</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20330051920342</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20330051920342</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20330051920342</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20330051920343</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20330051920343</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20330051920343</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20330051920343</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20330051920343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920343</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920344</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920344</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920344</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920344</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920344</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920344</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920345</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920345</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920345</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920345</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920345</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920345</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920381</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920381</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920381</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920381</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920381</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920381</v>
+      </c>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920346</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920346</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920346</v>
+      </c>
+      <c r="B82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920346</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920346</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920346</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920347</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920347</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920347</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920347</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920347</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920347</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920348</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920348</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920348</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920348</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920348</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920348</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920349</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920349</v>
+      </c>
+      <c r="B101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920349</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920349</v>
+      </c>
+      <c r="B103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920349</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920349</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920350</v>
+      </c>
+      <c r="B106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920350</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920350</v>
+      </c>
+      <c r="B108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920350</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920350</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920350</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920352</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" t="s">
+        <v>113</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920352</v>
+      </c>
+      <c r="B113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920352</v>
+      </c>
+      <c r="B114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920352</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920352</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>91</v>
+      </c>
+      <c r="D116" t="s">
+        <v>113</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920352</v>
+      </c>
+      <c r="B117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920353</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920353</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920353</v>
+      </c>
+      <c r="B120" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920353</v>
+      </c>
+      <c r="B122" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920353</v>
+      </c>
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920354</v>
+      </c>
+      <c r="B124" t="s">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920354</v>
+      </c>
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" t="s">
+        <v>93</v>
+      </c>
+      <c r="D125" t="s">
+        <v>115</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920354</v>
+      </c>
+      <c r="B126" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" t="s">
+        <v>115</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920354</v>
+      </c>
+      <c r="B127" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920354</v>
+      </c>
+      <c r="B128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920354</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920355</v>
+      </c>
+      <c r="B130" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920355</v>
+      </c>
+      <c r="B131" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920355</v>
+      </c>
+      <c r="B132" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920355</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" t="s">
+        <v>110</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920355</v>
+      </c>
+      <c r="B134" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" t="s">
+        <v>110</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920355</v>
+      </c>
+      <c r="B135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920382</v>
+      </c>
+      <c r="B136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920382</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" t="s">
+        <v>104</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920382</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138" t="s">
+        <v>104</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920382</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" t="s">
+        <v>104</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920382</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" t="s">
+        <v>104</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920382</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920356</v>
+      </c>
+      <c r="B142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920356</v>
+      </c>
+      <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920356</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920356</v>
+      </c>
+      <c r="B145" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" t="s">
+        <v>116</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920356</v>
+      </c>
+      <c r="B146" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" t="s">
+        <v>116</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920356</v>
+      </c>
+      <c r="B147" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" t="s">
+        <v>116</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920356</v>
+      </c>
+      <c r="B148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" t="s">
+        <v>116</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>20330051920357</v>
+      </c>
+      <c r="B149" t="s">
+        <v>75</v>
+      </c>
+      <c r="C149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" t="s">
+        <v>117</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>20330051920357</v>
+      </c>
+      <c r="B150" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>20330051920357</v>
+      </c>
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" t="s">
+        <v>117</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>20330051920357</v>
+      </c>
+      <c r="B152" t="s">
+        <v>75</v>
+      </c>
+      <c r="C152" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>20330051920357</v>
+      </c>
+      <c r="B153" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>20330051920357</v>
+      </c>
+      <c r="B154" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" t="s">
+        <v>117</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
         <v>20330051920383</v>
       </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B155" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" t="s">
+        <v>118</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>20330051920383</v>
+      </c>
+      <c r="B156" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" t="s">
+        <v>97</v>
+      </c>
+      <c r="D156" t="s">
+        <v>118</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>20330051920383</v>
+      </c>
+      <c r="B157" t="s">
+        <v>76</v>
+      </c>
+      <c r="C157" t="s">
+        <v>97</v>
+      </c>
+      <c r="D157" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>20330051920383</v>
+      </c>
+      <c r="B158" t="s">
+        <v>76</v>
+      </c>
+      <c r="C158" t="s">
+        <v>97</v>
+      </c>
+      <c r="D158" t="s">
+        <v>118</v>
+      </c>
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>20330051920383</v>
+      </c>
+      <c r="B159" t="s">
+        <v>76</v>
+      </c>
+      <c r="C159" t="s">
+        <v>97</v>
+      </c>
+      <c r="D159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>20330051920383</v>
+      </c>
+      <c r="B160" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" t="s">
+        <v>97</v>
+      </c>
+      <c r="D160" t="s">
+        <v>118</v>
+      </c>
+      <c r="E160" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F160" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>20330051920383</v>
+      </c>
+      <c r="B161" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" t="s">
+        <v>97</v>
+      </c>
+      <c r="D161" t="s">
+        <v>118</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3657,13 +6097,13 @@
         <v>20330051920338</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -3674,13 +6114,13 @@
         <v>20330051920346</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -3691,13 +6131,13 @@
         <v>20330051920337</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -3708,16 +6148,16 @@
         <v>20330051920263</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3725,13 +6165,13 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -3742,13 +6182,13 @@
         <v>20330051920342</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3756,16 +6196,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920352</v>
+        <v>20330051920354</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -3773,19 +6213,19 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920354</v>
+        <v>20330051920352</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3793,13 +6233,13 @@
         <v>20330051920356</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3810,13 +6250,13 @@
         <v>20330051920383</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3824,16 +6264,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920343</v>
+        <v>20330051920349</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3841,50 +6281,50 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920381</v>
+        <v>20330051920336</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920339</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920336</v>
+        <v>20330051920341</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3892,16 +6332,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3909,16 +6349,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920341</v>
+        <v>20330051920344</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3926,16 +6366,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920344</v>
+        <v>20330051920345</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3943,16 +6383,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920345</v>
+        <v>20330051920381</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3963,13 +6403,13 @@
         <v>20330051920347</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3980,13 +6420,13 @@
         <v>20330051920348</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3997,13 +6437,13 @@
         <v>20330051920350</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4014,13 +6454,13 @@
         <v>20330051920353</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4031,13 +6471,13 @@
         <v>20330051920355</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4048,13 +6488,13 @@
         <v>20330051920382</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4065,13 +6505,13 @@
         <v>20330051920357</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4084,7 +6524,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4117,190 +6557,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920349</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920349</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920356</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920383</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920383</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920381</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2APM - Estadisticos 2020.xlsx
+++ b/grupos/2APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -158,19 +158,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
     <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
     <t>Rosas Aguilar Claudia Leonor</t>
@@ -873,16 +873,16 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -920,13 +920,13 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -941,16 +941,16 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -994,7 +994,7 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1018,7 +1018,7 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1077,16 +1077,16 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1145,16 +1145,16 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1216,13 +1216,13 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1281,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1334,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1352,13 +1352,13 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1417,16 +1417,16 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1485,16 +1485,16 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1553,16 +1553,16 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1621,16 +1621,16 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1674,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1692,13 +1692,13 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1757,16 +1757,16 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1825,16 +1825,16 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1893,16 +1893,16 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1961,16 +1961,16 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2008,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -2029,16 +2029,16 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2097,16 +2097,16 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -2165,16 +2165,16 @@
         <v>7</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2233,16 +2233,16 @@
         <v>7</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2301,16 +2301,16 @@
         <v>9</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2369,16 +2369,16 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2437,16 +2437,16 @@
         <v>7</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2505,16 +2505,16 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -2608,30 +2608,27 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>56</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8.5</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -2640,25 +2637,22 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>76</v>
-      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>6.9</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2672,30 +2666,30 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -2704,30 +2698,30 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H5">
+        <v>6.9</v>
+      </c>
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
       <c r="J5">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2736,25 +2730,25 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2780,7 +2774,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2794,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -2812,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2828,7 +2822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2892,10 +2886,10 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2915,384 +2909,384 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920337</v>
+        <v>20330051920263</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920338</v>
+        <v>20330051920263</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920338</v>
+        <v>20330051920263</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920338</v>
+        <v>20330051920339</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920338</v>
+        <v>20330051920339</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920338</v>
+        <v>20330051920339</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920338</v>
+        <v>20330051920340</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920338</v>
+        <v>20330051920340</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920263</v>
+        <v>20330051920340</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>47</v>
@@ -3300,39 +3294,39 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920263</v>
+        <v>20330051920340</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920263</v>
+        <v>20330051920341</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
@@ -3340,219 +3334,219 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920263</v>
+        <v>20330051920341</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920263</v>
+        <v>20330051920342</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920263</v>
+        <v>20330051920342</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920339</v>
+        <v>20330051920344</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920339</v>
+        <v>20330051920344</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920340</v>
+        <v>20330051920345</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
@@ -3560,99 +3554,99 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920340</v>
+        <v>20330051920345</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920340</v>
+        <v>20330051920381</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920340</v>
+        <v>20330051920381</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920340</v>
+        <v>20330051920381</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920340</v>
+        <v>20330051920346</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
@@ -3660,99 +3654,99 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920340</v>
+        <v>20330051920346</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920341</v>
+        <v>20330051920346</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920341</v>
+        <v>20330051920346</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920341</v>
+        <v>20330051920346</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920341</v>
+        <v>20330051920347</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>46</v>
@@ -3760,279 +3754,279 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920341</v>
+        <v>20330051920347</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920341</v>
+        <v>20330051920347</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920342</v>
+        <v>20330051920347</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920342</v>
+        <v>20330051920348</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920342</v>
+        <v>20330051920348</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920342</v>
+        <v>20330051920349</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920342</v>
+        <v>20330051920349</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920342</v>
+        <v>20330051920350</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920342</v>
+        <v>20330051920350</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920343</v>
+        <v>20330051920352</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920343</v>
+        <v>20330051920352</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920343</v>
+        <v>20330051920353</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920343</v>
+        <v>20330051920353</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920343</v>
+        <v>20330051920354</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
@@ -4040,159 +4034,159 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920343</v>
+        <v>20330051920354</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920344</v>
+        <v>20330051920355</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920344</v>
+        <v>20330051920355</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920344</v>
+        <v>20330051920382</v>
       </c>
       <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>85</v>
-      </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920344</v>
+        <v>20330051920382</v>
       </c>
       <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
-        <v>85</v>
-      </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920344</v>
+        <v>20330051920356</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920344</v>
+        <v>20330051920356</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920345</v>
+        <v>20330051920356</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>47</v>
@@ -4200,1861 +4194,121 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920345</v>
+        <v>20330051920356</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920345</v>
+        <v>20330051920357</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920345</v>
+        <v>20330051920357</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920345</v>
+        <v>20330051920383</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920345</v>
+        <v>20330051920383</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920381</v>
+        <v>20330051920383</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920381</v>
-      </c>
-      <c r="B75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920381</v>
-      </c>
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920381</v>
-      </c>
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920381</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920381</v>
-      </c>
-      <c r="B79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920346</v>
-      </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920346</v>
-      </c>
-      <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" t="s">
-        <v>109</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920346</v>
-      </c>
-      <c r="B82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920346</v>
-      </c>
-      <c r="B83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920346</v>
-      </c>
-      <c r="B84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" t="s">
-        <v>109</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920346</v>
-      </c>
-      <c r="B85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920346</v>
-      </c>
-      <c r="B86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920347</v>
-      </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" t="s">
-        <v>110</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920347</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920347</v>
-      </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920347</v>
-      </c>
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" t="s">
-        <v>110</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920347</v>
-      </c>
-      <c r="B91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920347</v>
-      </c>
-      <c r="B92" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920347</v>
-      </c>
-      <c r="B93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D93" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920348</v>
-      </c>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920348</v>
-      </c>
-      <c r="B95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920348</v>
-      </c>
-      <c r="B96" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920348</v>
-      </c>
-      <c r="B97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920348</v>
-      </c>
-      <c r="B98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920348</v>
-      </c>
-      <c r="B99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920349</v>
-      </c>
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920349</v>
-      </c>
-      <c r="B101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920349</v>
-      </c>
-      <c r="B102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" t="s">
-        <v>90</v>
-      </c>
-      <c r="D102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920349</v>
-      </c>
-      <c r="B103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" t="s">
-        <v>111</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920349</v>
-      </c>
-      <c r="B104" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920349</v>
-      </c>
-      <c r="B105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D105" t="s">
-        <v>111</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920350</v>
-      </c>
-      <c r="B106" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" t="s">
-        <v>112</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920350</v>
-      </c>
-      <c r="B107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920350</v>
-      </c>
-      <c r="B108" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920350</v>
-      </c>
-      <c r="B109" t="s">
-        <v>68</v>
-      </c>
-      <c r="C109" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920350</v>
-      </c>
-      <c r="B110" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" t="s">
-        <v>112</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920350</v>
-      </c>
-      <c r="B111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" t="s">
-        <v>112</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920352</v>
-      </c>
-      <c r="B112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" t="s">
-        <v>113</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920352</v>
-      </c>
-      <c r="B113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920352</v>
-      </c>
-      <c r="B114" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920352</v>
-      </c>
-      <c r="B115" t="s">
-        <v>69</v>
-      </c>
-      <c r="C115" t="s">
-        <v>91</v>
-      </c>
-      <c r="D115" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920352</v>
-      </c>
-      <c r="B116" t="s">
-        <v>69</v>
-      </c>
-      <c r="C116" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920352</v>
-      </c>
-      <c r="B117" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" t="s">
-        <v>113</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920353</v>
-      </c>
-      <c r="B118" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" t="s">
-        <v>114</v>
-      </c>
-      <c r="E118" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920353</v>
-      </c>
-      <c r="B119" t="s">
-        <v>70</v>
-      </c>
-      <c r="C119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" t="s">
-        <v>114</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920353</v>
-      </c>
-      <c r="B120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C120" t="s">
-        <v>92</v>
-      </c>
-      <c r="D120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920353</v>
-      </c>
-      <c r="B121" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920353</v>
-      </c>
-      <c r="B122" t="s">
-        <v>70</v>
-      </c>
-      <c r="C122" t="s">
-        <v>92</v>
-      </c>
-      <c r="D122" t="s">
-        <v>114</v>
-      </c>
-      <c r="E122" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920353</v>
-      </c>
-      <c r="B123" t="s">
-        <v>70</v>
-      </c>
-      <c r="C123" t="s">
-        <v>92</v>
-      </c>
-      <c r="D123" t="s">
-        <v>114</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920354</v>
-      </c>
-      <c r="B124" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" t="s">
-        <v>93</v>
-      </c>
-      <c r="D124" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920354</v>
-      </c>
-      <c r="B125" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" t="s">
-        <v>93</v>
-      </c>
-      <c r="D125" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920354</v>
-      </c>
-      <c r="B126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" t="s">
-        <v>93</v>
-      </c>
-      <c r="D126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920354</v>
-      </c>
-      <c r="B127" t="s">
-        <v>71</v>
-      </c>
-      <c r="C127" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920354</v>
-      </c>
-      <c r="B128" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920354</v>
-      </c>
-      <c r="B129" t="s">
-        <v>71</v>
-      </c>
-      <c r="C129" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920355</v>
-      </c>
-      <c r="B130" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920355</v>
-      </c>
-      <c r="B131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920355</v>
-      </c>
-      <c r="B132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" t="s">
-        <v>110</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920355</v>
-      </c>
-      <c r="B133" t="s">
-        <v>72</v>
-      </c>
-      <c r="C133" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" t="s">
-        <v>110</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920355</v>
-      </c>
-      <c r="B134" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" t="s">
-        <v>110</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920355</v>
-      </c>
-      <c r="B135" t="s">
-        <v>72</v>
-      </c>
-      <c r="C135" t="s">
-        <v>94</v>
-      </c>
-      <c r="D135" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920382</v>
-      </c>
-      <c r="B136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C136" t="s">
-        <v>64</v>
-      </c>
-      <c r="D136" t="s">
-        <v>104</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920382</v>
-      </c>
-      <c r="B137" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" t="s">
-        <v>64</v>
-      </c>
-      <c r="D137" t="s">
-        <v>104</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920382</v>
-      </c>
-      <c r="B138" t="s">
-        <v>73</v>
-      </c>
-      <c r="C138" t="s">
-        <v>64</v>
-      </c>
-      <c r="D138" t="s">
-        <v>104</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920382</v>
-      </c>
-      <c r="B139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C139" t="s">
-        <v>64</v>
-      </c>
-      <c r="D139" t="s">
-        <v>104</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920382</v>
-      </c>
-      <c r="B140" t="s">
-        <v>73</v>
-      </c>
-      <c r="C140" t="s">
-        <v>64</v>
-      </c>
-      <c r="D140" t="s">
-        <v>104</v>
-      </c>
-      <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920382</v>
-      </c>
-      <c r="B141" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141" t="s">
-        <v>64</v>
-      </c>
-      <c r="D141" t="s">
-        <v>104</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920356</v>
-      </c>
-      <c r="B142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C142" t="s">
-        <v>95</v>
-      </c>
-      <c r="D142" t="s">
-        <v>116</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920356</v>
-      </c>
-      <c r="B143" t="s">
-        <v>74</v>
-      </c>
-      <c r="C143" t="s">
-        <v>95</v>
-      </c>
-      <c r="D143" t="s">
-        <v>116</v>
-      </c>
-      <c r="E143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920356</v>
-      </c>
-      <c r="B144" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" t="s">
-        <v>116</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920356</v>
-      </c>
-      <c r="B145" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" t="s">
-        <v>116</v>
-      </c>
-      <c r="E145" t="s">
-        <v>6</v>
-      </c>
-      <c r="F145" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920356</v>
-      </c>
-      <c r="B146" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" t="s">
-        <v>116</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920356</v>
-      </c>
-      <c r="B147" t="s">
-        <v>74</v>
-      </c>
-      <c r="C147" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" t="s">
-        <v>116</v>
-      </c>
-      <c r="E147" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920356</v>
-      </c>
-      <c r="B148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C148" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" t="s">
-        <v>116</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920357</v>
-      </c>
-      <c r="B149" t="s">
-        <v>75</v>
-      </c>
-      <c r="C149" t="s">
-        <v>96</v>
-      </c>
-      <c r="D149" t="s">
-        <v>117</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920357</v>
-      </c>
-      <c r="B150" t="s">
-        <v>75</v>
-      </c>
-      <c r="C150" t="s">
-        <v>96</v>
-      </c>
-      <c r="D150" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920357</v>
-      </c>
-      <c r="B151" t="s">
-        <v>75</v>
-      </c>
-      <c r="C151" t="s">
-        <v>96</v>
-      </c>
-      <c r="D151" t="s">
-        <v>117</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920357</v>
-      </c>
-      <c r="B152" t="s">
-        <v>75</v>
-      </c>
-      <c r="C152" t="s">
-        <v>96</v>
-      </c>
-      <c r="D152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920357</v>
-      </c>
-      <c r="B153" t="s">
-        <v>75</v>
-      </c>
-      <c r="C153" t="s">
-        <v>96</v>
-      </c>
-      <c r="D153" t="s">
-        <v>117</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920357</v>
-      </c>
-      <c r="B154" t="s">
-        <v>75</v>
-      </c>
-      <c r="C154" t="s">
-        <v>96</v>
-      </c>
-      <c r="D154" t="s">
-        <v>117</v>
-      </c>
-      <c r="E154" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920383</v>
-      </c>
-      <c r="B155" t="s">
-        <v>76</v>
-      </c>
-      <c r="C155" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155" t="s">
-        <v>118</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920383</v>
-      </c>
-      <c r="B156" t="s">
-        <v>76</v>
-      </c>
-      <c r="C156" t="s">
-        <v>97</v>
-      </c>
-      <c r="D156" t="s">
-        <v>118</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920383</v>
-      </c>
-      <c r="B157" t="s">
-        <v>76</v>
-      </c>
-      <c r="C157" t="s">
-        <v>97</v>
-      </c>
-      <c r="D157" t="s">
-        <v>118</v>
-      </c>
-      <c r="E157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920383</v>
-      </c>
-      <c r="B158" t="s">
-        <v>76</v>
-      </c>
-      <c r="C158" t="s">
-        <v>97</v>
-      </c>
-      <c r="D158" t="s">
-        <v>118</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920383</v>
-      </c>
-      <c r="B159" t="s">
-        <v>76</v>
-      </c>
-      <c r="C159" t="s">
-        <v>97</v>
-      </c>
-      <c r="D159" t="s">
-        <v>118</v>
-      </c>
-      <c r="E159" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920383</v>
-      </c>
-      <c r="B160" t="s">
-        <v>76</v>
-      </c>
-      <c r="C160" t="s">
-        <v>97</v>
-      </c>
-      <c r="D160" t="s">
-        <v>118</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920383</v>
-      </c>
-      <c r="B161" t="s">
-        <v>76</v>
-      </c>
-      <c r="C161" t="s">
-        <v>97</v>
-      </c>
-      <c r="D161" t="s">
-        <v>118</v>
-      </c>
-      <c r="E161" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6111,16 +4365,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920346</v>
+        <v>20330051920342</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -6128,36 +4382,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920337</v>
+        <v>20330051920346</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920263</v>
+        <v>20330051920337</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6174,296 +4428,296 @@
         <v>102</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920342</v>
+        <v>20330051920347</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920354</v>
+        <v>20330051920356</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920352</v>
+        <v>20330051920336</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920356</v>
+        <v>20330051920263</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920383</v>
+        <v>20330051920339</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920349</v>
+        <v>20330051920381</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920336</v>
+        <v>20330051920383</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920339</v>
+        <v>20330051920341</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920341</v>
+        <v>20330051920343</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920343</v>
+        <v>20330051920344</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920344</v>
+        <v>20330051920345</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920345</v>
+        <v>20330051920348</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920381</v>
+        <v>20330051920349</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920347</v>
+        <v>20330051920350</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920348</v>
+        <v>20330051920352</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920350</v>
+        <v>20330051920353</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920353</v>
+        <v>20330051920354</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6480,7 +4734,7 @@
         <v>110</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6497,7 +4751,7 @@
         <v>104</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6514,7 +4768,7 @@
         <v>117</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6524,7 +4778,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6554,7 +4808,605 @@
         <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920341</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920349</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920353</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920353</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920354</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920355</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920355</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920382</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920357</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920357</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2APM - Estadisticos 2020.xlsx
+++ b/grupos/2APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -158,21 +158,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>De Jesús Orduña Sofía del Pilar</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -218,18 +218,105 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
+    <t>VILLALBA</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>PIMENTEL</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>JESUS DAVID</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>ISYSS MONSERRATH</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>EDGAR DANIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>ANGELA MONTSERRAT</t>
+  </si>
+  <si>
     <t>MIRANDA</t>
   </si>
   <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
@@ -242,57 +329,18 @@
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>VERA</t>
-  </si>
-  <si>
     <t>XILCAHUA</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ATILANO</t>
-  </si>
-  <si>
-    <t>VILLALBA</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>PIMENTEL</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>AGUIRRE</t>
   </si>
   <si>
     <t>IXTLA</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>ESTRELLA</t>
   </si>
   <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
@@ -305,57 +353,15 @@
     <t>GARCIA</t>
   </si>
   <si>
-    <t>PONCE</t>
-  </si>
-  <si>
     <t>TLAXCALA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>JESUS DAVID</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>ISYSS MONSERRATH</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
     <t>MARIAM GUADALUPE</t>
   </si>
   <si>
     <t>ELIEL</t>
   </si>
   <si>
-    <t>EDGAR DANIEL</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
-  </si>
-  <si>
     <t>ESTEFANI</t>
   </si>
   <si>
@@ -368,13 +374,7 @@
     <t>JAHEL</t>
   </si>
   <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
     <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ANGELA MONTSERRAT</t>
   </si>
 </sst>
 </file>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -932,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -953,10 +953,10 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1068,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1089,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1160,7 +1160,7 @@
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1228,7 +1228,7 @@
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1296,7 +1296,7 @@
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1364,7 +1364,7 @@
         <v>-1</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1432,7 +1432,7 @@
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1497,10 +1497,10 @@
         <v>9</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1565,10 +1565,10 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1636,7 +1636,7 @@
         <v>-1</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1772,7 +1772,7 @@
         <v>-1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1837,10 +1837,10 @@
         <v>9</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -1908,7 +1908,7 @@
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -1973,10 +1973,10 @@
         <v>9</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>8</v>
@@ -2041,10 +2041,10 @@
         <v>8</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2109,10 +2109,10 @@
         <v>9</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2156,10 +2156,10 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>7</v>
@@ -2177,10 +2177,10 @@
         <v>7</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2245,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2313,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2449,10 +2449,10 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2496,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -2608,27 +2608,30 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
+      <c r="H2">
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -2637,27 +2640,30 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -2666,30 +2672,30 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -2698,30 +2704,30 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2742,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -2788,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -2822,7 +2828,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2860,73 +2866,73 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -2934,39 +2940,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2974,22 +2980,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920337</v>
+        <v>20330051920338</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3003,10 +3009,10 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -3023,30 +3029,30 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920338</v>
+        <v>20330051920263</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
@@ -3054,119 +3060,119 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920338</v>
+        <v>20330051920339</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920338</v>
+        <v>20330051920339</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920338</v>
+        <v>20330051920340</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920263</v>
+        <v>20330051920340</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920263</v>
+        <v>20330051920340</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920263</v>
+        <v>20330051920341</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -3174,159 +3180,159 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920340</v>
+        <v>20330051920342</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920340</v>
+        <v>20330051920343</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920340</v>
+        <v>20330051920381</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920340</v>
+        <v>20330051920381</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920341</v>
+        <v>20330051920346</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
@@ -3334,19 +3340,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920341</v>
+        <v>20330051920346</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
@@ -3354,59 +3360,59 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920342</v>
+        <v>20330051920346</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920342</v>
+        <v>20330051920346</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920342</v>
+        <v>20330051920346</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>48</v>
@@ -3414,59 +3420,59 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920342</v>
+        <v>20330051920347</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920342</v>
+        <v>20330051920347</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920343</v>
+        <v>20330051920347</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>47</v>
@@ -3474,19 +3480,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920343</v>
+        <v>20330051920349</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
         <v>46</v>
@@ -3494,59 +3500,59 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920344</v>
+        <v>20330051920356</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920344</v>
+        <v>20330051920356</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920345</v>
+        <v>20330051920356</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
@@ -3554,19 +3560,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920345</v>
+        <v>20330051920356</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>46</v>
@@ -3574,742 +3580,42 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920381</v>
+        <v>20330051920383</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920381</v>
+        <v>20330051920383</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920381</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920346</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920346</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920346</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920346</v>
-      </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920346</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920347</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920347</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920347</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920347</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920348</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920348</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920349</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920349</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920350</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920350</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920352</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920352</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920353</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920353</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920354</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920354</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920355</v>
-      </c>
-      <c r="B62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920355</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920382</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920382</v>
-      </c>
-      <c r="B65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920356</v>
-      </c>
-      <c r="B66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920356</v>
-      </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920356</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920356</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920357</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920357</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920383</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920383</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920383</v>
-      </c>
-      <c r="B74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +3663,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4365,16 +3671,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920342</v>
+        <v>20330051920346</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4382,33 +3688,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920346</v>
+        <v>20330051920342</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920337</v>
+        <v>20330051920356</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4422,13 +3728,13 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4439,115 +3745,115 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920356</v>
+        <v>20330051920337</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920336</v>
+        <v>20330051920339</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920263</v>
+        <v>20330051920381</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920339</v>
+        <v>20330051920383</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920381</v>
+        <v>20330051920336</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920383</v>
+        <v>20330051920263</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4558,13 +3864,13 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4575,81 +3881,81 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920344</v>
+        <v>20330051920349</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920345</v>
+        <v>20330051920344</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920348</v>
+        <v>20330051920345</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4657,16 +3963,16 @@
         <v>20330051920350</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4674,16 +3980,16 @@
         <v>20330051920352</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4691,16 +3997,16 @@
         <v>20330051920353</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4708,16 +4014,16 @@
         <v>20330051920354</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4725,16 +4031,16 @@
         <v>20330051920355</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4742,16 +4048,16 @@
         <v>20330051920382</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4759,16 +4065,16 @@
         <v>20330051920357</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4084,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4813,19 +4119,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920341</v>
+        <v>20330051920337</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -4836,22 +4142,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920341</v>
+        <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -4859,19 +4165,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920343</v>
+        <v>20330051920339</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -4882,19 +4188,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920343</v>
+        <v>20330051920339</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -4905,22 +4211,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920344</v>
+        <v>20330051920381</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -4928,19 +4234,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920344</v>
+        <v>20330051920381</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -4951,19 +4257,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920345</v>
+        <v>20330051920383</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -4974,22 +4280,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920345</v>
+        <v>20330051920383</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -4997,19 +4303,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920348</v>
+        <v>20330051920336</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -5020,22 +4326,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920348</v>
+        <v>20330051920263</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -5043,22 +4349,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920349</v>
+        <v>20330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -5066,19 +4372,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920349</v>
+        <v>20330051920343</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -5089,323 +4395,24 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920350</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920352</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920352</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920353</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920353</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920354</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920354</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920355</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920355</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920382</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920382</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920357</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920357</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27">
         <v>-1</v>
       </c>
     </row>
